--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -38,12 +38,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00FFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -59,11 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -141,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E3" headerRowCount="1">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E103" headerRowCount="1">
+  <autoFilter ref="A1:E103"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -155,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C2" headerRowCount="1">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C21" headerRowCount="1">
+  <autoFilter ref="A1:C21"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -455,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,17 +506,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2025-05-17</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>3:02:26</t>
+          <t>0:47:12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -520,32 +526,2732 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0:12:56</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0:02:56</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0:05:26</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0:09:43</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:07:34</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:13:46</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0:14:42</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0:24:38</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0:33:12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0:12:58</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0:05:51</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0:00:33</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>1:07:28</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>1:29:16</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>1:46:47</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0:01:40</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1:06:06</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>2:00:20</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0:07:02</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0:03:54</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0:06:20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0:07:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0:12:47</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0:36:56</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>0:18:25</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0:05:12</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0:21:41</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0:27:28</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0:17:08</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0:02:05</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>0:07:13</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0:07:15</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0:09:54</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>0:00:42</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:55:17</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>0:05:05</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>0:29:11</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>0:06:16</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0:04:41</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>0:29:55</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0:09:44</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>0:58:41</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0:11:59</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>0:13:39</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>0:15:03</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>0:15:10</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0:38:30</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>0:05:14</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0:11:09</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>2:33:23</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>3:05:09</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>3:34:49</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>0:03:30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>2:10:25</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>2:20:35</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0:01:25</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0:04:46</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:52:35</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:17:47</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:23:46</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:06:36</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:00:23</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0:09:27</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0:02:22</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>0:05:24</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:40:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>0:00:27</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:04:48</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:03:58</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>0:02:52</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>0:08:51</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>0:04:25</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>0:04:04</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:05:33</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>0:02:34</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>0:07:27</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>0:11:04</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>2:00:21</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0:16:28</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>0:04:52</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>0:15:44</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>0:05:03</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>0:46:16</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>3:02:26</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
           <t>2025-05-18</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C103" s="3" t="inlineStr">
         <is>
           <t>3:12:16</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -565,7 +3271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +3280,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -598,15 +3304,338 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-17-25 to 05-18-25</t>
+          <t>01-02-25 to 01-05-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
+          <t>Strand 1, Strand 3, Strand 5, Strand 8</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-06-25 to 01-11-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-13-25 to 01-19-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-20-25 to 01-25-25</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-27-25 to 02-02-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 5, Strand 8</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02-06-25 to 02-06-25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02-10-25 to 02-16-25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02-18-25 to 02-23-25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 5, Strand 6</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02-25-25 to 02-27-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 5</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03-05-25 to 03-09-25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 5</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03-12-25 to 03-13-25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 5, Strand 7</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03-17-25 to 03-23-25</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03-24-25 to 03-30-25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>04-01-25 to 04-06-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04-10-25 to 04-11-25</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04-14-25 to 04-20-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5, Strand 6</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04-21-25 to 04-25-25</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04-28-25 to 05-04-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5, Strand 7</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05-06-25 to 05-07-25</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05-12-25 to 05-18-25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -147,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E103" headerRowCount="1">
-  <autoFilter ref="A1:E103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E104" headerRowCount="1">
+  <autoFilter ref="A1:E104"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -161,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C21" headerRowCount="1">
-  <autoFilter ref="A1:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C22" headerRowCount="1">
+  <autoFilter ref="A1:C22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,12 +646,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0:07:34</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -659,9 +659,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>1:03:20</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -686,9 +686,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>2:15:40</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -713,9 +713,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0:06:08</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0:07:20</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -767,9 +767,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1078,17 +1078,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>1:06:06</t>
+          <t>2:00:20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2:00:20</t>
+          <t>1:06:06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1510,17 +1510,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>0:30:49</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1537,12 +1537,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:09:54</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0:09:54</t>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1699,17 +1699,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1726,17 +1726,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>0:29:55</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1807,12 +1807,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>0:09:44</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2050,17 +2050,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>2:33:23</t>
+          <t>3:34:49</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -2104,17 +2104,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>3:34:49</t>
+          <t>2:33:23</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>0:12:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2225,9 +2225,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>3:22:59</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2252,9 +2252,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2374,12 +2374,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>0:23:46</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2428,12 +2428,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C73" s="4" t="inlineStr">
-        <is>
-          <t>0:56:42</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2509,17 +2509,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2536,17 +2536,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2563,22 +2563,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>0:12:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2590,22 +2590,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2698,12 +2698,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2981,9 +2981,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3008,9 +3008,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:15:44</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3130,12 +3130,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:46:16</t>
+          <t>0:15:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3157,12 +3157,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>0:54:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3184,12 +3184,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>0:11:17</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3252,6 +3252,33 @@
         </is>
       </c>
       <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>1:37:53</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3271,7 +3298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3280,7 +3307,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -3304,7 +3331,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01-02-25 to 01-05-25</t>
+          <t>01-02-25 to 01-03-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3321,12 +3348,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-06-25 to 01-11-25</t>
+          <t>01-05-25 to 01-11-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -3338,7 +3365,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01-13-25 to 01-19-25</t>
+          <t>01-13-25 to 01-17-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3355,7 +3382,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01-20-25 to 01-25-25</t>
+          <t>01-19-25 to 01-25-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3372,7 +3399,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01-27-25 to 02-02-25</t>
+          <t>01-27-25 to 01-30-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3389,7 +3416,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02-06-25 to 02-06-25</t>
+          <t>02-02-25 to 02-06-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3406,29 +3433,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02-10-25 to 02-16-25</t>
+          <t>02-10-25 to 02-13-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7, Strand 8</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02-18-25 to 02-23-25</t>
+          <t>02-16-25 to 02-20-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 5, Strand 6</t>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 8</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -3440,7 +3467,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02-25-25 to 02-27-25</t>
+          <t>02-23-25 to 02-27-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3457,12 +3484,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>03-05-25 to 03-09-25</t>
+          <t>03-05-25 to 03-07-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 5</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -3474,7 +3501,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>03-12-25 to 03-13-25</t>
+          <t>03-09-25 to 03-13-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3491,12 +3518,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>03-17-25 to 03-23-25</t>
+          <t>03-17-25 to 03-19-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 3, Strand 4, Strand 5</t>
+          <t>Strand 1, Strand 4, Strand 5</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -3508,12 +3535,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03-24-25 to 03-30-25</t>
+          <t>03-23-25 to 03-24-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 4, Strand 5</t>
+          <t>Strand 1, Strand 3</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -3525,12 +3552,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>04-01-25 to 04-06-25</t>
+          <t>03-30-25 to 04-03-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 4</t>
+          <t>Strand 1, Strand 4, Strand 5</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -3542,7 +3569,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04-10-25 to 04-11-25</t>
+          <t>04-06-25 to 04-11-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3559,12 +3586,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>04-14-25 to 04-20-25</t>
+          <t>04-14-25 to 04-19-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 4, Strand 5, Strand 6</t>
+          <t>Strand 1, Strand 4, Strand 5</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -3576,12 +3603,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>04-21-25 to 04-25-25</t>
+          <t>04-20-25 to 04-25-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 4, Strand 5</t>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -3593,12 +3620,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>04-28-25 to 05-04-25</t>
+          <t>04-28-25 to 05-02-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 4, Strand 5, Strand 7</t>
+          <t>Strand 1, Strand 4, Strand 5</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -3610,12 +3637,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05-06-25 to 05-07-25</t>
+          <t>05-04-25 to 05-07-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 5, Strand 7</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -3627,7 +3654,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>05-12-25 to 05-18-25</t>
+          <t>05-12-25 to 05-17-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3636,6 +3663,23 @@
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05-18-25 to 05-19-25</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -39,6 +39,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -54,10 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -135,8 +147,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E2" headerRowCount="1">
-  <autoFilter ref="A1:E2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E105" headerRowCount="1">
+  <autoFilter ref="A1:E105"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="Strand"/>
@@ -149,8 +161,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C2" headerRowCount="1">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C22" headerRowCount="1">
+  <autoFilter ref="A1:C22"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Week Range"/>
     <tableColumn id="2" name="Strands Completed"/>
@@ -449,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,25 +506,2806 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>0:12:56</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0:02:56</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0:47:12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0:05:26</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0:09:43</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0:13:46</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:07:34</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0:14:42</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0:24:38</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0:33:12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0:12:58</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0:05:51</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0:00:33</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>1:07:28</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>1:46:47</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>1:29:16</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0:01:40</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1:06:06</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>2:00:20</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0:07:02</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0:03:54</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0:06:20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0:07:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0:12:47</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0:36:56</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>0:18:25</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0:05:12</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0:21:41</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0:17:08</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0:27:28</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0:02:05</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>0:07:13</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0:09:54</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0:07:15</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>0:00:42</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:55:17</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>0:05:05</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>0:29:11</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>0:06:16</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0:04:41</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>0:29:55</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0:09:44</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>0:58:41</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0:11:59</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>0:13:39</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>0:15:03</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>0:15:10</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0:38:30</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>0:05:14</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0:11:09</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>2:33:23</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>3:34:49</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>3:05:09</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>0:03:30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>2:10:25</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>2:20:35</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0:01:25</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0:04:46</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:52:35</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:17:47</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:23:46</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:06:36</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:00:23</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0:09:27</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0:02:22</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>0:05:24</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:40:00</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>0:00:27</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:04:48</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:02:52</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>0:03:58</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>0:08:51</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>0:04:25</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>0:04:04</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-02</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:05:33</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>0:02:34</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>0:07:27</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-07</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>0:11:04</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>2:00:21</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0:16:28</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>0:04:52</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>0:05:03</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>0:46:16</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>0:15:44</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-16</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>3:02:26</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>3:12:16</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>1:37:53</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
           <t>2025-05-22</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>0:08:58</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -532,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +3334,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -565,15 +3358,355 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-22-25 to 05-22-25</t>
+          <t>01-02-25 to 01-03-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 1, Strand 3, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-05-25 to 01-11-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-13-25 to 01-17-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-19-25 to 01-25-25</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-27-25 to 01-30-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 5, Strand 8</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02-02-25 to 02-06-25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02-10-25 to 02-13-25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02-16-25 to 02-20-25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 8</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02-23-25 to 02-27-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 5</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03-05-25 to 03-07-25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03-09-25 to 03-13-25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 5, Strand 7</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03-17-25 to 03-19-25</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03-23-25 to 03-24-25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>03-30-25 to 04-03-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04-06-25 to 04-11-25</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04-14-25 to 04-19-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04-20-25 to 04-25-25</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04-28-25 to 05-02-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05-04-25 to 05-07-25</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 5, Strand 7</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05-12-25 to 05-17-25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05-18-25 to 05-22-25</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -29,7 +29,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,11 @@
         <fgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -59,11 +64,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -138,32 +144,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InspectionLog" displayName="InspectionLog" ref="A1:E5" headerRowCount="1">
-  <autoFilter ref="A1:E5"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Date"/>
-    <tableColumn id="2" name="Strand"/>
-    <tableColumn id="3" name="Total Duration (hh:mm:ss)"/>
-    <tableColumn id="4" name="Multiple Switches"/>
-    <tableColumn id="5" name="Pass/Fail"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="WeeklySummary" displayName="WeeklySummary" ref="A1:C2" headerRowCount="1">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Week Range"/>
-    <tableColumn id="2" name="Strands Completed"/>
-    <tableColumn id="3" name="All 8 Present"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +443,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="10" customWidth="1" min="2" max="2"/>
     <col width="27" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
@@ -498,10 +478,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>45659</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -510,96 +488,2690 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>0:12:56</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>0:02:56</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0:47:12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0:05:26</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45662</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0:09:43</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:13:46</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0:07:34</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0:14:42</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45668</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0:24:38</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0:33:12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0:12:58</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0:05:51</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0:00:33</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>45676</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>1:07:28</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>1:46:47</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>1:29:16</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0:01:40</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1:06:06</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>2:00:20</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0:07:02</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0:03:54</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0:06:20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0:07:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0:12:47</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0:36:56</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>0:18:25</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0:05:12</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>0:17:08</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0:27:28</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0:21:41</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>0:02:05</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0:07:13</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>0:09:54</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0:07:15</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>0:00:42</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>1:55:17</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>0:05:05</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>0:29:11</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>0:06:16</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>0:04:41</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>0:29:55</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>45714</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0:09:44</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>0:58:41</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0:11:59</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>0:13:39</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>0:15:03</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>45725</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>0:15:10</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0:05:14</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>0:38:30</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0:11:09</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>3:05:09</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>2:33:23</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>3:34:49</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>0:03:30</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>2:10:25</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>2:20:35</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>0:01:25</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>0:04:46</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>1:52:35</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>0:17:47</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:06:36</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:23:46</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>0:00:23</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>45765</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>0:09:27</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>0:05:24</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>45766</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>0:02:22</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0:40:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>0:00:27</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>0:04:48</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>0:03:58</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>0:02:52</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>0:08:51</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>0:04:25</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>0:04:04</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>0:05:33</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>0:02:34</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>0:07:27</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>0:11:04</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>2:00:21</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>0:04:52</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>0:16:28</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>0:46:16</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>0:15:44</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>0:05:03</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>45794</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>3:02:26</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>3:12:16</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>45796</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>1:37:53</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>45799</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>0:08:58</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
           <t>0:38:57</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>1:22:19</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45800</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>Strand 2</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C108" s="2" t="inlineStr">
         <is>
           <t>0:05:15</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-23</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>1:22:19</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2025-05-24</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45801</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>Strand 1</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C109" s="2" t="inlineStr">
         <is>
           <t>0:16:51</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -607,9 +3179,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -619,7 +3188,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,7 +3197,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
@@ -652,15 +3221,355 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05-23-25 to 05-24-25</t>
+          <t>01-02-25 to 01-03-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 7</t>
+          <t>Strand 1, Strand 3, Strand 5, Strand 8</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01-05-25 to 01-11-25</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01-13-25 to 01-17-25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01-19-25 to 01-25-25</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01-27-25 to 01-30-25</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Strand 5, Strand 8</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>02-02-25 to 02-06-25</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>02-10-25 to 02-13-25</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 4, Strand 5, Strand 6, Strand 7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02-16-25 to 02-20-25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6, Strand 8</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02-23-25 to 02-27-25</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3, Strand 5</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>03-05-25 to 03-07-25</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03-09-25 to 03-13-25</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 5, Strand 7</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03-17-25 to 03-19-25</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03-23-25 to 03-24-25</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 3</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>03-30-25 to 04-03-25</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04-06-25 to 04-11-25</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04-14-25 to 04-19-25</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>04-20-25 to 04-25-25</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04-28-25 to 05-02-25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 4, Strand 5</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05-04-25 to 05-07-25</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Strand 5, Strand 7</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05-12-25 to 05-17-25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 5, Strand 6, Strand 7, Strand 8</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05-18-25 to 05-24-25</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Strand 1, Strand 2, Strand 3, Strand 7</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -668,8 +3577,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,12 +633,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0:06:08</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -696,9 +696,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0:07:34</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>2:15:40</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,9 +746,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0:27:28</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1308,17 +1308,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:27:28</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:38:30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:38:30</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:12:00</t>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -2408,17 +2408,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>0:40:00</t>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:46:16</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>0:15:44</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:15:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>0:54:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>0:11:17</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>1:22:19</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3121,9 +3121,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>0:05:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>1:22:19</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3146,9 +3146,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3172,6 +3172,81 @@
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>0:38:13</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45804</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>0:06:24</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45807</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>0:06:31</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3188,7 +3263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3575,6 +3650,23 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05-27-25 to 05-30-25</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Strand 2, Strand 5</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0:12:56</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:12:56</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0:13:46</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -621,9 +621,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>1:03:20</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -671,9 +671,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0:07:34</t>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:46:47</t>
+          <t>1:29:16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1:29:16</t>
+          <t>1:46:47</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0:17:08</t>
+          <t>0:27:28</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1308,17 +1308,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:27:28</t>
+          <t>0:17:08</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>0:30:49</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>1:35:21</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0:09:54</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1446,9 +1446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>0:09:54</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1471,9 +1471,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1583,17 +1583,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:38:30</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:38:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>3:05:09</t>
+          <t>3:34:49</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>3:34:49</t>
+          <t>3:05:09</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>0:12:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2071,9 +2071,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>3:22:59</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2096,9 +2096,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>0:06:36</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C73" s="4" t="inlineStr">
-        <is>
-          <t>0:56:42</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>0:40:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2396,9 +2396,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2446,9 +2446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2771,9 +2771,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2796,9 +2796,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>0:04:52</t>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2833,12 +2833,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>0:16:28</t>
+          <t>0:04:52</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>0:46:16</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3083,17 +3083,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>0:38:57</t>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>0:05:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>1:22:19</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3121,9 +3121,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3133,22 +3133,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>1:22:19</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:38:57</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3247,6 +3247,56 @@
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45808</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>0:44:02</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>0:04:17</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3263,7 +3313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,15 +3703,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>05-27-25 to 05-30-25</t>
+          <t>05-27-25 to 05-31-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 2, Strand 5</t>
+          <t>Strand 1, Strand 2, Strand 5</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>06-01-25 to 06-01-25</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:12:56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0:12:56</t>
+          <t>0:47:12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -533,17 +533,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0:47:12</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>1:03:20</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -621,9 +621,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>2:15:40</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -696,9 +696,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0:07:34</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -721,9 +721,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0:13:46</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,9 +746,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:29:16</t>
+          <t>1:46:47</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1:46:47</t>
+          <t>1:29:16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>1:06:06</t>
+          <t>2:00:20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1033,17 +1033,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2:00:20</t>
+          <t>1:06:06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0:27:28</t>
+          <t>0:17:08</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:27:28</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:17:08</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>0:30:49</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>0:09:54</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1446,9 +1446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>1:35:21</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>0:09:54</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1471,9 +1471,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1583,17 +1583,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>0:29:55</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>0:09:44</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>3:34:49</t>
+          <t>2:33:23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>2:33:23</t>
+          <t>3:05:09</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>3:05:09</t>
+          <t>3:34:49</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>3:22:59</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2071,9 +2071,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>0:12:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2096,9 +2096,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C71" s="4" t="inlineStr">
-        <is>
-          <t>0:56:42</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>0:23:46</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:06:36</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2383,22 +2383,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>0:12:00</t>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>0:40:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2446,9 +2446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2771,9 +2771,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2796,9 +2796,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>0:16:28</t>
+          <t>0:04:52</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2833,12 +2833,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>0:04:52</t>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:46:16</t>
+          <t>0:15:44</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:15:44</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>0:11:17</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C101" s="4" t="inlineStr">
-        <is>
-          <t>0:54:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3083,17 +3083,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:38:57</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>1:22:19</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3121,9 +3121,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3133,22 +3133,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>0:38:57</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>1:22:19</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0:47:12</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -533,17 +533,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:47:12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0:13:46</t>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0:06:08</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -646,9 +646,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0:07:34</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -671,9 +671,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>2:15:40</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -721,9 +721,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>1:03:20</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,9 +746,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:46:47</t>
+          <t>1:29:16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1:29:16</t>
+          <t>1:46:47</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>2:00:20</t>
+          <t>1:06:06</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1033,17 +1033,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>1:06:06</t>
+          <t>2:00:20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0:17:08</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:17:08</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>0:30:49</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>1:35:21</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>0:09:54</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1446,9 +1446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>0:09:54</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1471,9 +1471,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1658,12 +1658,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>0:09:44</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>0:29:55</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:38:30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:38:30</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -2408,12 +2408,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>0:40:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2421,9 +2421,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2446,9 +2446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2808,12 +2808,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>0:04:52</t>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2833,12 +2833,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>0:16:28</t>
+          <t>0:04:52</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:15:44</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:15:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>0:54:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>0:11:17</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3299,6 +3299,181 @@
       <c r="E114" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C115" s="2" t="inlineStr">
+        <is>
+          <t>0:05:08</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>0:01:25</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
+        <is>
+          <t>0:14:08</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45812</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>0:04:42</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>0:07:17</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>0:00:56</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>1:38:54</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3720,12 +3895,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06-01-25 to 06-01-25</t>
+          <t>06-01-25 to 06-05-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0:12:56</t>
+          <t>0:47:12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -508,12 +508,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:12:56</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -533,17 +533,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0:47:12</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0:06:08</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>1:03:20</t>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>2:15:40</t>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0:07:34</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0:13:46</t>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:29:16</t>
+          <t>1:46:47</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1:46:47</t>
+          <t>1:29:16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>1:06:06</t>
+          <t>2:00:20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1033,17 +1033,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2:00:20</t>
+          <t>1:06:06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0:27:28</t>
+          <t>0:17:08</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1308,17 +1308,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:17:08</t>
+          <t>0:27:28</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>0:30:49</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0:09:54</t>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:09:54</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1583,17 +1583,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>0:29:55</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>0:09:44</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>2:33:23</t>
+          <t>3:34:49</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>3:05:09</t>
+          <t>2:33:23</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>3:34:49</t>
+          <t>3:05:09</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>0:12:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2071,9 +2071,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>3:22:59</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2096,9 +2096,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>0:23:46</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C71" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>0:06:36</t>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C73" s="4" t="inlineStr">
-        <is>
-          <t>0:56:42</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2383,22 +2383,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>0:12:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2408,22 +2408,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2771,9 +2771,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2796,9 +2796,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:15:44</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>0:46:16</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:15:44</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>0:11:17</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C100" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C101" s="4" t="inlineStr">
-        <is>
-          <t>0:54:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>0:05:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>1:22:19</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3121,9 +3121,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>1:22:19</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3146,9 +3146,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>0:38:13</t>
+          <t>0:06:24</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>0:06:24</t>
+          <t>0:38:13</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:05:08</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C119" s="2" t="inlineStr">
-        <is>
-          <t>0:07:17</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>1:38:54</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3421,9 +3421,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3458,20 +3458,45 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>1:38:54</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E121" s="3" t="inlineStr">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>1:00:22</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3895,12 +3920,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06-01-25 to 06-05-25</t>
+          <t>06-01-25 to 06-06-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 1, Strand 2, Strand 4, Strand 5</t>
+          <t>Strand 1, Strand 2, Strand 4, Strand 5, Strand 6</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0:47:12</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0:12:56</t>
+          <t>0:47:12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:12:56</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0:07:34</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -621,9 +621,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>2:15:40</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -646,9 +646,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>1:03:20</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -671,9 +671,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0:13:46</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0:06:08</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,9 +746,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:46:47</t>
+          <t>1:29:16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1:29:16</t>
+          <t>1:46:47</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>2:00:20</t>
+          <t>1:06:06</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1033,17 +1033,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>1:06:06</t>
+          <t>2:00:20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:27:28</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1308,17 +1308,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:27:28</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>0:07:13</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>0:30:49</t>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:09:54</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>1:35:21</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1471,9 +1471,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>0:09:54</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,9 +1496,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1583,17 +1583,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>0:09:44</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>0:29:55</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:38:30</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:38:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1908,17 +1908,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>3:34:49</t>
+          <t>2:33:23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>2:33:23</t>
+          <t>3:05:09</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>3:05:09</t>
+          <t>3:34:49</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>3:22:59</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2071,9 +2071,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>0:12:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2096,9 +2096,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C71" s="4" t="inlineStr">
-        <is>
-          <t>0:56:42</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>0:23:46</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:06:36</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2383,22 +2383,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>0:12:00</t>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>0:40:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2446,9 +2446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2771,9 +2771,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2796,9 +2796,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>0:16:28</t>
+          <t>0:04:52</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2833,12 +2833,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>0:04:52</t>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:15:44</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:15:44</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:46:16</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3083,22 +3083,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>0:38:57</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>1:22:19</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>1:22:19</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3121,9 +3121,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3133,17 +3133,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:38:57</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>0:06:24</t>
+          <t>0:38:13</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>0:38:13</t>
+          <t>0:06:24</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:05:08</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>1:38:54</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3421,9 +3421,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr">
@@ -3458,22 +3458,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>0:00:56</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>1:38:54</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3497,6 +3497,56 @@
         </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>1:03:43</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -3513,7 +3563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3934,6 +3984,23 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>06-09-25 to 06-10-25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Strand 3, Strand 4</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,12 +608,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>1:03:20</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -621,9 +621,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0:06:08</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -671,9 +671,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0:07:34</t>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0:13:46</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>0:07:13</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0:30:49</t>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1458,12 +1458,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>0:07:15</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1471,9 +1471,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>1:35:21</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,9 +1496,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1583,17 +1583,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>2:33:23</t>
+          <t>3:05:09</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1933,17 +1933,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>3:05:09</t>
+          <t>3:34:49</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>3:34:49</t>
+          <t>2:33:23</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>0:23:46</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>0:06:36</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C72" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C73" s="4" t="inlineStr">
-        <is>
-          <t>0:56:42</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:12:00</t>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -2408,12 +2408,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>0:40:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2421,9 +2421,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2433,22 +2433,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2771,9 +2771,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2796,9 +2796,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3083,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>1:22:19</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3096,9 +3096,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>0:05:15</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>1:22:19</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3121,9 +3121,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3358,17 +3358,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>0:14:08</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
@@ -3383,17 +3383,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>0:04:42</t>
+          <t>0:14:08</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -3408,17 +3408,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -3433,22 +3433,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>0:00:56</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>1:38:54</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3458,12 +3458,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>1:38:54</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3471,9 +3471,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3549,6 +3549,31 @@
       <c r="E124" s="3" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>0:03:45</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3987,12 +4012,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06-09-25 to 06-10-25</t>
+          <t>06-09-25 to 06-11-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4</t>
+          <t>Strand 3, Strand 4, Strand 7</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:12:56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0:12:56</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0:06:08</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0:13:46</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -696,9 +696,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0:07:34</t>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>2:15:40</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,9 +746,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:29:16</t>
+          <t>1:46:47</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1:46:47</t>
+          <t>1:29:16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0:27:28</t>
+          <t>0:17:08</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0:17:08</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1308,17 +1308,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:27:28</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0:30:49</t>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>0:09:54</t>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>0:07:15</t>
+          <t>0:09:54</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1583,17 +1583,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:38:30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:38:30</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>3:05:09</t>
+          <t>2:33:23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>2:33:23</t>
+          <t>3:05:09</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>0:12:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2071,9 +2071,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>3:22:59</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2096,9 +2096,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>0:06:36</t>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0:23:46</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>0:40:00</t>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
@@ -2408,12 +2408,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2421,9 +2421,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2433,22 +2433,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>0:12:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>0:02:52</t>
+          <t>0:03:58</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>0:03:58</t>
+          <t>0:02:52</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2771,9 +2771,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2796,9 +2796,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:46:16</t>
+          <t>0:15:44</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>0:15:44</t>
+          <t>0:05:03</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:05:03</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3083,17 +3083,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>0:05:15</t>
+          <t>0:38:57</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
@@ -3133,17 +3133,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>0:38:57</t>
+          <t>0:05:15</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>0:38:13</t>
+          <t>0:06:24</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>0:06:24</t>
+          <t>0:38:13</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3308,12 +3308,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>0:05:08</t>
+          <t>0:01:25</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 2</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>0:01:25</t>
+          <t>0:05:08</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3358,17 +3358,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>0:04:42</t>
+          <t>0:14:08</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
@@ -3383,17 +3383,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>0:14:08</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -3408,17 +3408,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -3458,17 +3458,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3572,6 +3572,206 @@
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>0:02:16</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>0:05:54</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>0:00:01</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>0:25:49</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>0:04:19</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>45822</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>0:00:03</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>45823</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>1:32:03</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>0:42:09</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -3588,7 +3788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4012,15 +4212,32 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06-09-25 to 06-11-25</t>
+          <t>06-09-25 to 06-14-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Strand 3, Strand 4, Strand 7</t>
+          <t>Strand 1, Strand 3, Strand 4, Strand 6, Strand 7, Strand 8</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06-15-25 to 06-16-25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0:12:56</t>
+          <t>0:47:12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -508,17 +508,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>0:47:12</t>
+          <t>0:12:56</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 6</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0:13:46</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -646,9 +646,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>1:03:20</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -671,9 +671,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>2:15:40</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -696,9 +696,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0:07:20</t>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 2</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0:06:08</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,9 +746,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>1:46:47</t>
+          <t>1:29:16</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>1:29:16</t>
+          <t>1:46:47</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>1:06:06</t>
+          <t>2:00:20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1033,17 +1033,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2:00:20</t>
+          <t>1:06:06</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0:17:08</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:27:28</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1308,17 +1308,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0:27:28</t>
+          <t>0:17:08</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0:07:13</t>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>0:07:13</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>0:30:49</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>0:07:15</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>1:35:21</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1446,9 +1446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>1:35:21</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>0:07:15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1471,9 +1471,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1583,17 +1583,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>0:29:55</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>0:09:44</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>2:33:23</t>
+          <t>3:05:09</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>3:05:09</t>
+          <t>2:33:23</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2058,12 +2058,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>3:22:59</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>0:12:20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2071,9 +2071,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2083,12 +2083,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>0:12:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>3:22:59</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2096,9 +2096,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>0:23:46</t>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>0:06:36</t>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2383,22 +2383,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>0:12:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2408,17 +2408,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>0:40:00</t>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 6</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>0:40:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2446,9 +2446,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2771,9 +2771,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2796,9 +2796,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>0:04:52</t>
+          <t>0:16:28</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2833,12 +2833,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>0:16:28</t>
+          <t>0:04:52</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3358,17 +3358,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>0:14:08</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
@@ -3383,17 +3383,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>0:04:42</t>
+          <t>0:14:08</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -3408,17 +3408,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:07:17</t>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -3458,17 +3458,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
@@ -3583,17 +3583,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:25:49</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>0:00:01</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3658,17 +3658,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>0:25:49</t>
+          <t>0:00:01</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>0:04:19</t>
+          <t>0:00:03</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3708,12 +3708,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>0:00:03</t>
+          <t>0:04:19</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3772,6 +3772,81 @@
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>0:02:10</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>0:03:58</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>0:05:20</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4229,12 +4304,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06-15-25 to 06-16-25</t>
+          <t>06-15-25 to 06-18-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 1, Strand 4, Strand 5</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">

--- a/data/Sorter Inspection Validation Chicago.xlsx
+++ b/data/Sorter Inspection Validation Chicago.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>0:47:12</t>
+          <t>0:02:56</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -533,17 +533,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0:02:56</t>
+          <t>0:47:12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -608,12 +608,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0:07:34</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1:03:20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -621,9 +621,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -633,12 +633,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>2:15:40</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0:07:20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -646,9 +646,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0:07:20</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>2:15:40</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -671,9 +671,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Strand 2</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0:06:08</t>
+          <t>0:13:46</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0:13:46</t>
+          <t>0:07:34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>1:03:20</t>
+          <t>Strand 2</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0:06:08</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -746,9 +746,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1008,17 +1008,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>2:00:20</t>
+          <t>1:06:06</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1033,17 +1033,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>1:06:06</t>
+          <t>2:00:20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0:06:20</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1108,12 +1108,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:06:20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0:21:41</t>
+          <t>0:27:28</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>0:27:28</t>
+          <t>0:21:41</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Strand 4</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>0:30:49</t>
+          <t>Strand 3</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>0:50:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1408,17 +1408,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Strand 3</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>0:30:49</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1583,17 +1583,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>0:06:16</t>
+          <t>0:29:11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -1608,17 +1608,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>0:29:11</t>
+          <t>0:06:16</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1658,12 +1658,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 3</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>0:09:44</t>
+          <t>0:29:55</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Strand 3</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>0:29:55</t>
+          <t>0:09:44</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>0:38:30</t>
+          <t>0:05:14</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>0:05:14</t>
+          <t>0:38:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -1908,12 +1908,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>3:05:09</t>
+          <t>2:33:23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1933,17 +1933,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>3:34:49</t>
+          <t>3:05:09</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E60" s="3" t="inlineStr">
@@ -1958,17 +1958,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>2:33:23</t>
+          <t>3:34:49</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E61" s="3" t="inlineStr">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>0:06:36</t>
+          <t>0:23:46</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C72" s="4" t="inlineStr">
-        <is>
-          <t>0:56:42</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>0:06:36</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>0:23:46</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C73" s="4" t="inlineStr">
+        <is>
+          <t>0:56:42</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>0:05:24</t>
+          <t>0:02:22</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>0:02:22</t>
+          <t>0:05:24</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
@@ -2383,22 +2383,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>2:04:26</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>0:12:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2408,22 +2408,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>0:12:00</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>2:04:26</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Strand 5</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>0:04:04</t>
+          <t>0:04:25</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2608,12 +2608,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 5</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>0:04:25</t>
+          <t>0:04:04</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2758,12 +2758,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>2:31:51</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>0:03:22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2771,9 +2771,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr">
-        <is>
-          <t>0:03:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>2:31:51</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2796,9 +2796,9 @@
           <t>No</t>
         </is>
       </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 7</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>0:15:44</t>
+          <t>0:46:16</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2908,12 +2908,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Strand 7</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>0:46:16</t>
+          <t>0:15:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Strand 8</t>
-        </is>
-      </c>
-      <c r="C100" s="4" t="inlineStr">
-        <is>
-          <t>0:54:22</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>0:11:17</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C101" s="2" t="inlineStr">
-        <is>
-          <t>0:11:17</t>
+          <t>Strand 8</t>
+        </is>
+      </c>
+      <c r="C101" s="4" t="inlineStr">
+        <is>
+          <t>0:54:22</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3083,22 +3083,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>0:38:57</t>
+          <t>Strand 7</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>1:22:19</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3108,22 +3108,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Strand 7</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>1:22:19</t>
+          <t>Strand 1</t>
+        </is>
+      </c>
+      <c r="C107" s="2" t="inlineStr">
+        <is>
+          <t>0:38:57</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3358,17 +3358,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>0:04:42</t>
+          <t>0:14:08</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
@@ -3383,17 +3383,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>0:14:08</t>
+          <t>0:04:42</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
@@ -3408,17 +3408,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>0:00:56</t>
+          <t>0:07:17</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr">
@@ -3433,22 +3433,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Strand 5</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>1:38:54</t>
+          <t>Strand 4</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>0:00:56</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t>Pass</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -3458,12 +3458,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Strand 1</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t>0:07:17</t>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>1:38:54</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3471,9 +3471,9 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>Fail</t>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3583,17 +3583,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>0:25:49</t>
+          <t>0:02:16</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
@@ -3608,17 +3608,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Strand 8</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>0:05:54</t>
+          <t>0:25:49</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
@@ -3633,12 +3633,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 6</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>0:02:16</t>
+          <t>0:00:01</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3658,12 +3658,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Strand 6</t>
+          <t>Strand 8</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>0:00:01</t>
+          <t>0:05:54</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3683,12 +3683,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Strand 4</t>
+          <t>Strand 1</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>0:00:03</t>
+          <t>0:04:19</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3708,12 +3708,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Strand 1</t>
+          <t>Strand 4</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>0:04:19</t>
+          <t>0:00:03</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3847,6 +3847,31 @@
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Strand 5</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>0:05:31</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>
@@ -4304,7 +4329,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06-15-25 to 06-18-25</t>
+          <t>06-15-25 to 06-19-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
